--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn1-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn1-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Nlgn1</t>
+  </si>
+  <si>
+    <t>Nrxn1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Nlgn1</t>
-  </si>
-  <si>
-    <t>Nrxn1</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,10 +540,10 @@
         <v>0.04527</v>
       </c>
       <c r="I2">
-        <v>0.1275031685678073</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.1275031685678074</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +558,10 @@
         <v>0.657545</v>
       </c>
       <c r="O2">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507667</v>
       </c>
       <c r="P2">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507669</v>
       </c>
       <c r="Q2">
         <v>0.00330745135</v>
@@ -567,10 +570,10 @@
         <v>0.02976706215</v>
       </c>
       <c r="S2">
-        <v>0.04038436426479743</v>
+        <v>0.8459226744507667</v>
       </c>
       <c r="T2">
-        <v>0.04038436426479744</v>
+        <v>0.8459226744507669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +602,10 @@
         <v>0.04527</v>
       </c>
       <c r="I3">
-        <v>0.1275031685678073</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.1275031685678074</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -611,42 +614,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4728276666666666</v>
+        <v>0.03648100000000001</v>
       </c>
       <c r="N3">
-        <v>1.418483</v>
+        <v>0.109443</v>
       </c>
       <c r="O3">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="P3">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="Q3">
-        <v>0.007134969489999999</v>
+        <v>0.0005504982900000001</v>
       </c>
       <c r="R3">
-        <v>0.06421472540999999</v>
+        <v>0.00495448461</v>
       </c>
       <c r="S3">
-        <v>0.08711880430300989</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="T3">
-        <v>0.08711880430300992</v>
+        <v>0.1407969268413801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -655,108 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.10326</v>
+        <v>0.01509</v>
       </c>
       <c r="H4">
-        <v>0.30978</v>
+        <v>0.04527</v>
       </c>
       <c r="I4">
-        <v>0.8724968314321926</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8724968314321927</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2191816666666667</v>
+        <v>0.003441</v>
       </c>
       <c r="N4">
-        <v>0.657545</v>
+        <v>0.010323</v>
       </c>
       <c r="O4">
-        <v>0.3167322406056181</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="P4">
-        <v>0.3167322406056181</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="Q4">
-        <v>0.0226326989</v>
+        <v>5.192469E-05</v>
       </c>
       <c r="R4">
-        <v>0.2036942901</v>
+        <v>0.00046732221</v>
       </c>
       <c r="S4">
-        <v>0.2763478763408206</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="T4">
-        <v>0.2763478763408206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.10326</v>
-      </c>
-      <c r="H5">
-        <v>0.30978</v>
-      </c>
-      <c r="I5">
-        <v>0.8724968314321926</v>
-      </c>
-      <c r="J5">
-        <v>0.8724968314321927</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.4728276666666666</v>
-      </c>
-      <c r="N5">
-        <v>1.418483</v>
-      </c>
-      <c r="O5">
-        <v>0.6832677593943819</v>
-      </c>
-      <c r="P5">
-        <v>0.6832677593943819</v>
-      </c>
-      <c r="Q5">
-        <v>0.04882418486</v>
-      </c>
-      <c r="R5">
-        <v>0.43941766374</v>
-      </c>
-      <c r="S5">
-        <v>0.5961489550913719</v>
-      </c>
-      <c r="T5">
-        <v>0.596148955091372</v>
+        <v>0.0132803987078531</v>
       </c>
     </row>
   </sheetData>
